--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T10:43:15+00:00</t>
+    <t>2025-11-17T16:08:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T16:08:32+00:00</t>
+    <t>2025-11-18T10:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:18:37+00:00</t>
+    <t>2025-11-18T10:31:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:31:28+00:00</t>
+    <t>2025-11-18T14:30:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T14:30:08+00:00</t>
+    <t>2025-11-18T15:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T15:24:05+00:00</t>
+    <t>2025-11-19T16:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T16:22:07+00:00</t>
+    <t>2025-11-20T10:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T10:32:05+00:00</t>
+    <t>2025-11-20T16:06:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>3</t>
+    <t>5</t>
   </si>
   <si>
     <t>Level</t>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>Stratégie de mise en œuvre de l'objectif</t>
+  </si>
+  <si>
+    <t>origineAttente</t>
+  </si>
+  <si>
+    <t>Acteur (personne physique ou personne morale) qui a un lien avec l'usager ou l'usager elle-même qui définit son attente.</t>
+  </si>
+  <si>
+    <t>commentaireAttente</t>
+  </si>
+  <si>
+    <t>Permet de compléter ou éclairer la description de l'attente.</t>
   </si>
 </sst>
 </file>
@@ -459,7 +471,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -515,6 +527,30 @@
       </c>
       <c r="D4" s="2"/>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T16:06:37+00:00</t>
+    <t>2025-11-21T09:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T09:00:00+00:00</t>
+    <t>2025-11-26T10:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-26T10:17:34+00:00</t>
+    <t>2025-11-27T09:05:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T09:05:35+00:00</t>
+    <t>2025-11-27T16:23:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T16:23:25+00:00</t>
+    <t>2025-11-27T17:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:29:29+00:00</t>
+    <t>2025-11-28T10:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T10:30:25+00:00</t>
+    <t>2025-12-01T08:11:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T08:11:14+00:00</t>
+    <t>2025-12-01T09:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T09:05:19+00:00</t>
+    <t>2025-12-02T17:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T17:18:03+00:00</t>
+    <t>2025-12-03T10:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:22:03+00:00</t>
+    <t>2025-12-05T09:54:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-tddui-goal-note-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:54:12+00:00</t>
+    <t>2025-12-09T10:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
